--- a/Final Project Docs/CS 411 Test Plan and Execution .xlsx
+++ b/Final Project Docs/CS 411 Test Plan and Execution .xlsx
@@ -14,12 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="113">
+  <si>
+    <t xml:space="preserve">Page Name </t>
+  </si>
   <si>
     <t>Table</t>
   </si>
   <si>
-    <t xml:space="preserve">Page Name </t>
+    <t>Form ID</t>
   </si>
   <si>
     <t xml:space="preserve">UI Element </t>
@@ -31,21 +34,33 @@
     <t>Expected Function</t>
   </si>
   <si>
+    <t>Field ID</t>
+  </si>
+  <si>
     <t xml:space="preserve">Type </t>
   </si>
   <si>
     <t>Test ID</t>
   </si>
   <si>
+    <t>Expected Values</t>
+  </si>
+  <si>
+    <t>Read/Write</t>
+  </si>
+  <si>
     <t xml:space="preserve">Pass/Fail </t>
   </si>
   <si>
-    <t>Read/Write</t>
-  </si>
-  <si>
     <t>Data Source</t>
   </si>
   <si>
+    <t>Test Value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Home </t>
+  </si>
+  <si>
     <t>Constraints</t>
   </si>
   <si>
@@ -55,111 +70,138 @@
     <t>Pass/Fail</t>
   </si>
   <si>
-    <t xml:space="preserve">Home </t>
-  </si>
-  <si>
     <t>Button</t>
   </si>
   <si>
-    <t>Form ID</t>
+    <t>Search</t>
   </si>
   <si>
     <t xml:space="preserve">User </t>
   </si>
   <si>
-    <t>Field ID</t>
-  </si>
-  <si>
     <t>takes to Home Screen</t>
   </si>
   <si>
     <t>fname</t>
   </si>
   <si>
+    <t>sForm</t>
+  </si>
+  <si>
+    <t>varchar</t>
+  </si>
+  <si>
     <t>test1</t>
   </si>
   <si>
-    <t>varchar</t>
-  </si>
-  <si>
-    <t>Expected Values</t>
+    <t>textInput1</t>
   </si>
   <si>
     <t>r/w</t>
   </si>
   <si>
+    <t xml:space="preserve">fail </t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
     <t>Register Page</t>
   </si>
   <si>
     <t>not null</t>
   </si>
   <si>
+    <t>field.1</t>
+  </si>
+  <si>
+    <t>data1</t>
+  </si>
+  <si>
+    <t>numbers 0-9</t>
+  </si>
+  <si>
     <t>fail</t>
   </si>
   <si>
+    <t>Create Button</t>
+  </si>
+  <si>
+    <t>goes to Register page</t>
+  </si>
+  <si>
     <t>email</t>
   </si>
   <si>
+    <t>test2</t>
+  </si>
+  <si>
     <t>unique, not null</t>
   </si>
   <si>
+    <t>data2</t>
+  </si>
+  <si>
+    <t>field.2</t>
+  </si>
+  <si>
+    <t>special characters</t>
+  </si>
+  <si>
+    <t>Sign In Button</t>
+  </si>
+  <si>
     <t>dob</t>
   </si>
   <si>
+    <t>takes to Sign In</t>
+  </si>
+  <si>
     <t xml:space="preserve">date </t>
   </si>
   <si>
-    <t>Test Value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fail </t>
-  </si>
-  <si>
-    <t>Search</t>
-  </si>
-  <si>
-    <t>Create Button</t>
-  </si>
-  <si>
-    <t>sForm</t>
-  </si>
-  <si>
-    <t>textInput1</t>
-  </si>
-  <si>
-    <t>string</t>
-  </si>
-  <si>
-    <t>field.1</t>
-  </si>
-  <si>
-    <t>numbers 0-9</t>
-  </si>
-  <si>
-    <t>goes to Register page</t>
-  </si>
-  <si>
-    <t>field.2</t>
-  </si>
-  <si>
-    <t>special characters</t>
-  </si>
-  <si>
-    <t>Sign In Button</t>
+    <t>test3</t>
+  </si>
+  <si>
+    <t>data3</t>
   </si>
   <si>
     <t>field.3</t>
   </si>
   <si>
+    <t>Search Button</t>
+  </si>
+  <si>
+    <t>lastname</t>
+  </si>
+  <si>
     <t>nonsense words</t>
   </si>
   <si>
-    <t>lastname</t>
+    <t>begins search</t>
+  </si>
+  <si>
+    <t>test4</t>
+  </si>
+  <si>
+    <t>data4</t>
+  </si>
+  <si>
+    <t>pass</t>
   </si>
   <si>
     <t>password</t>
   </si>
   <si>
+    <t>data5</t>
+  </si>
+  <si>
+    <t>field.4</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
     <t>city</t>
   </si>
   <si>
@@ -266,6 +308,51 @@
   </si>
   <si>
     <t>Completed Date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bug1 </t>
+  </si>
+  <si>
+    <t>accepts numbers</t>
+  </si>
+  <si>
+    <t>Amanda</t>
+  </si>
+  <si>
+    <t>not completed</t>
+  </si>
+  <si>
+    <t>Bug2</t>
+  </si>
+  <si>
+    <t>accepts nonsense</t>
+  </si>
+  <si>
+    <t>Bug3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">not indicating that it is requried </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leda </t>
+  </si>
+  <si>
+    <t>Bug4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Home button crashes sit </t>
+  </si>
+  <si>
+    <t>Anran (Andy)</t>
+  </si>
+  <si>
+    <t>Bug5</t>
+  </si>
+  <si>
+    <t>Search button first appears at the top of the page but when results are returned it jumps to the bottom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">James </t>
   </si>
 </sst>
 </file>
@@ -339,94 +426,117 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -447,553 +557,553 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G2" s="1">
-        <v>1.0</v>
+        <v>31</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="E3" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" s="1">
-        <v>2.0</v>
+        <v>40</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="F4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" s="1">
-        <v>3.0</v>
+        <v>31</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" s="1">
-        <v>4.0</v>
+        <v>31</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G6" s="1">
-        <v>5.0</v>
+        <v>31</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="G7" s="1">
         <v>6.0</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="G8" s="1">
         <v>7.0</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="G9" s="1">
         <v>8.0</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="G10" s="1">
         <v>9.0</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="G11" s="1">
         <v>10.0</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="G12" s="1">
         <v>11.0</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="G13" s="1">
         <v>12.0</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="G14" s="1">
         <v>13.0</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="G15" s="1">
         <v>14.0</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="G16" s="1">
         <v>15.0</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="G17" s="1">
         <v>16.0</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="G18" s="1">
         <v>17.0</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="G19" s="1">
         <v>18.0</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="G20" s="1">
         <v>19.0</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="G21" s="1">
         <v>20.0</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="G22" s="1">
         <v>21.0</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1010,58 +1120,87 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="B4" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1078,22 +1217,122 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>83</v>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D2" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D3" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D4" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D5" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D6" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
